--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="237">
   <si>
     <t>Courses</t>
   </si>
@@ -667,6 +667,90 @@
   </si>
   <si>
     <t>Korean (88)</t>
+  </si>
+  <si>
+    <t>Beginner (884)</t>
+  </si>
+  <si>
+    <t>English (1,644)</t>
+  </si>
+  <si>
+    <t>English (1,643)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (991)</t>
+  </si>
+  <si>
+    <t>Mixed (149)</t>
+  </si>
+  <si>
+    <t>Spanish (1,101)</t>
+  </si>
+  <si>
+    <t>Arabic (1,012)</t>
+  </si>
+  <si>
+    <t>French (997)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (993)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (988)</t>
+  </si>
+  <si>
+    <t>German (977)</t>
+  </si>
+  <si>
+    <t>Indonesian (976)</t>
+  </si>
+  <si>
+    <t>Hindi (972)</t>
+  </si>
+  <si>
+    <t>Italian (971)</t>
+  </si>
+  <si>
+    <t>Swedish (970)</t>
+  </si>
+  <si>
+    <t>Dutch (969)</t>
+  </si>
+  <si>
+    <t>Greek (969)</t>
+  </si>
+  <si>
+    <t>Polish (969)</t>
+  </si>
+  <si>
+    <t>Thai (969)</t>
+  </si>
+  <si>
+    <t>Turkish (969)</t>
+  </si>
+  <si>
+    <t>Ukrainian (969)</t>
+  </si>
+  <si>
+    <t>Russian (946)</t>
+  </si>
+  <si>
+    <t>Kazakh (894)</t>
+  </si>
+  <si>
+    <t>Beginner (887)</t>
+  </si>
+  <si>
+    <t>Intermediate (784)</t>
+  </si>
+  <si>
+    <t>English (1,651)</t>
+  </si>
+  <si>
+    <t>Japanese (979)</t>
+  </si>
+  <si>
+    <t>Korean (977)</t>
   </si>
 </sst>
 </file>
@@ -1109,12 +1193,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -1124,7 +1208,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1152,112 +1236,112 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">

--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="240">
   <si>
     <t>Courses</t>
   </si>
@@ -751,6 +751,15 @@
   </si>
   <si>
     <t>Korean (977)</t>
+  </si>
+  <si>
+    <t>Beginner (891)</t>
+  </si>
+  <si>
+    <t>Intermediate (785)</t>
+  </si>
+  <si>
+    <t>English (1,656)</t>
   </si>
 </sst>
 </file>
@@ -1193,12 +1202,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -1236,7 +1245,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">

--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="243">
   <si>
     <t>Courses</t>
   </si>
@@ -760,6 +760,15 @@
   </si>
   <si>
     <t>English (1,656)</t>
+  </si>
+  <si>
+    <t>Beginner (895)</t>
+  </si>
+  <si>
+    <t>Intermediate (786)</t>
+  </si>
+  <si>
+    <t>English (1,661)</t>
   </si>
 </sst>
 </file>
@@ -1202,12 +1211,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -1245,7 +1254,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">

--- a/testData/testDataCoursera.xlsx
+++ b/testData/testDataCoursera.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="243">
   <si>
     <t>Courses</t>
   </si>
